--- a/vertx-pin/zero-psi/src/main/resources/plugin/psi/oob/data/psi.menu.xlsx
+++ b/vertx-pin/zero-psi/src/main/resources/plugin/psi/oob/data/psi.menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-psi/src/main/resources/plugin/psi/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A82911B-4A73-5E4D-848B-DD9A2D2FEF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F70BDB-8847-C048-B707-33E542AE79A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="66740" yWindow="-4280" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -149,14 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓位设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>download</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/psi/position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.psi-i.outcome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,9 +391,6 @@
     <t>f52a0440-f153-467d-b5bc-420fb6579750</t>
   </si>
   <si>
-    <t>b413096b-1152-4f08-8b3e-079019850404</t>
-  </si>
-  <si>
     <t>ae768aba-f4d5-42ea-85a9-b3fce6adbe24</t>
   </si>
   <si>
@@ -412,10 +399,6 @@
   </si>
   <si>
     <t>zero.psi.setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.psi.pos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,11 +606,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B23"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -972,16 +955,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
@@ -1049,7 +1032,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
@@ -1077,7 +1060,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
@@ -1096,10 +1079,10 @@
         <v>27</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>28</v>
@@ -1108,7 +1091,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$5</f>
@@ -1124,22 +1107,22 @@
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="I7" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>A$5</f>
@@ -1155,22 +1138,22 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>A$5</f>
@@ -1186,22 +1169,22 @@
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>A$5</f>
@@ -1217,22 +1200,22 @@
         <v>2</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
@@ -1245,13 +1228,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>21</v>
@@ -1260,7 +1243,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>A$11</f>
@@ -1276,22 +1259,22 @@
         <v>2</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" ref="B13:B14" si="0">A$11</f>
@@ -1307,22 +1290,22 @@
         <v>2</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1338,22 +1321,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H14" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
@@ -1366,13 +1349,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>21</v>
@@ -1381,7 +1364,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="8" t="str">
         <f>A$15</f>
@@ -1397,22 +1380,22 @@
         <v>2</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" ref="B17:B19" si="1">A$15</f>
@@ -1428,22 +1411,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1459,22 +1442,22 @@
         <v>2</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1490,22 +1473,22 @@
         <v>2</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>33</v>
@@ -1520,13 +1503,13 @@
         <v>2</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>21</v>
@@ -1535,7 +1518,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="8" t="str">
         <f>A$20</f>
@@ -1547,11 +1530,11 @@
       <c r="D21" s="16">
         <v>1005</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>3</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>29</v>
@@ -1566,10 +1549,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B22" s="8" t="str">
-        <f t="shared" ref="B22:B23" si="2">A$20</f>
+        <f t="shared" ref="B22" si="2">A$20</f>
         <v>7ffae86e-2c49-4bba-a160-04b6d0b647f4</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -1578,53 +1561,22 @@
       <c r="D22" s="16">
         <v>1010</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>3</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="I22" s="18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>7ffae86e-2c49-4bba-a160-04b6d0b647f4</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="16">
-        <v>1015</v>
-      </c>
-      <c r="E23" s="21">
-        <v>3</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-psi/src/main/resources/plugin/psi/oob/data/psi.menu.xlsx
+++ b/vertx-pin/zero-psi/src/main/resources/plugin/psi/oob/data/psi.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-psi/src/main/resources/plugin/psi/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F70BDB-8847-C048-B707-33E542AE79A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74A3CAB-C507-924B-B5B3-B38C1CFA2BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66740" yWindow="-4280" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="62900" yWindow="-7640" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -419,6 +419,44 @@
   </si>
   <si>
     <t>7ffae86e-2c49-4bba-a160-04b6d0b647f4</t>
+  </si>
+  <si>
+    <t>报废管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.psi-i.discard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.psi-i.deprecated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折旧管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/psi/discard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/psi/deprecated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scissor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b59caf74-c2ea-4868-bf47-1e7a53dd6cd6</t>
+  </si>
+  <si>
+    <t>5ee6e6bb-66ed-49a2-b134-a7b9972b441a</t>
+  </si>
+  <si>
+    <t>issues-close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -926,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:J22"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1122,10 +1160,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f>A$5</f>
+        <f t="shared" ref="B8:B9" si="0">A$5</f>
         <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1138,25 +1176,25 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B9" s="8" t="str">
-        <f>A$5</f>
+        <f t="shared" si="0"/>
         <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1169,22 +1207,22 @@
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>A$5</f>
@@ -1200,383 +1238,445 @@
         <v>2</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>A$5</f>
+        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
+      </c>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6">
-        <v>5500</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
+      <c r="D11" s="16">
+        <v>1030</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f>A$11</f>
-        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
+        <f>A$5</f>
+        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="16">
-        <v>1005</v>
+        <v>1035</v>
       </c>
       <c r="E12" s="19">
         <v>2</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="8" t="str">
-        <f t="shared" ref="B13:B14" si="0">A$11</f>
-        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="16">
-        <v>1010</v>
-      </c>
-      <c r="E13" s="19">
-        <v>2</v>
+      <c r="D13" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>A$13</f>
         <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="16">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" ref="B15:B16" si="1">A$13</f>
+        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
+      </c>
       <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6">
-        <v>5400</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
+      <c r="D15" s="16">
+        <v>1010</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="8" t="str">
-        <f>A$15</f>
-        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
+        <f t="shared" si="1"/>
+        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="16">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="E16" s="19">
         <v>2</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="8" t="str">
-        <f t="shared" ref="B17:B19" si="1">A$15</f>
-        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="16">
-        <v>1010</v>
-      </c>
-      <c r="E17" s="19">
-        <v>2</v>
+      <c r="D17" s="6">
+        <v>5400</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>A$17</f>
         <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="16">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="E18" s="19">
         <v>2</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B19:B21" si="2">A$17</f>
         <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="16">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E19" s="19">
         <v>2</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>96</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="16">
-        <v>1200</v>
+        <v>1015</v>
       </c>
       <c r="E20" s="19">
         <v>2</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="8" t="str">
-        <f>A$20</f>
-        <v>7ffae86e-2c49-4bba-a160-04b6d0b647f4</v>
+        <f t="shared" si="2"/>
+        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="16">
-        <v>1005</v>
-      </c>
-      <c r="E21" s="20">
-        <v>3</v>
+        <v>1020</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="19">
+        <v>2</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f>A$22</f>
+        <v>7ffae86e-2c49-4bba-a160-04b6d0b647f4</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E23" s="20">
+        <v>3</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="8" t="str">
-        <f t="shared" ref="B22" si="2">A$20</f>
+      <c r="B24" s="8" t="str">
+        <f t="shared" ref="B24" si="3">A$22</f>
         <v>7ffae86e-2c49-4bba-a160-04b6d0b647f4</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="C24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="16">
         <v>1010</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E24" s="20">
         <v>3</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F24" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="13"/>
+      <c r="J24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-psi/src/main/resources/plugin/psi/oob/data/psi.menu.xlsx
+++ b/vertx-pin/zero-psi/src/main/resources/plugin/psi/oob/data/psi.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-psi/src/main/resources/plugin/psi/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74A3CAB-C507-924B-B5B3-B38C1CFA2BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB0695-5D5A-1B45-A73A-C046CF7B0324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62900" yWindow="-7640" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="39860" yWindow="-5880" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -398,14 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zero.psi.setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.psi.commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.data.psi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,6 +448,14 @@
   </si>
   <si>
     <t>issues-close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.data.psi.setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.data.psi.commodity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +967,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F25" sqref="F25:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1070,26 +1070,26 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>21</v>
@@ -1098,11 +1098,11 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
-        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
+        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>22</v>
@@ -1114,26 +1114,26 @@
         <v>2</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$5</f>
-        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
+        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>22</v>
@@ -1145,26 +1145,26 @@
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f t="shared" ref="B8:B9" si="0">A$5</f>
-        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
+        <f>A$5</f>
+        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>22</v>
@@ -1176,419 +1176,419 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B9" s="8" t="str">
+        <f>A$5</f>
+        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1020</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>A$10</f>
+        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>A$10</f>
+        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1010</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>A$10</f>
+        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1015</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5600</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f>A$14</f>
+        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>A$14</f>
+        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1010</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f t="shared" ref="B17:B18" si="0">A$14</f>
+        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1015</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="C18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="16">
         <v>1020</v>
-      </c>
-      <c r="E9" s="19">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="8" t="str">
-        <f>A$5</f>
-        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1025</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="8" t="str">
-        <f>A$5</f>
-        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1030</v>
-      </c>
-      <c r="E11" s="19">
-        <v>2</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="8" t="str">
-        <f>A$5</f>
-        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1035</v>
-      </c>
-      <c r="E12" s="19">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6">
-        <v>5500</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="8" t="str">
-        <f>A$13</f>
-        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1005</v>
-      </c>
-      <c r="E14" s="19">
-        <v>2</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="8" t="str">
-        <f t="shared" ref="B15:B16" si="1">A$13</f>
-        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1010</v>
-      </c>
-      <c r="E15" s="19">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>ac4f2160-baa9-4168-a95d-f56bf1b56787</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1015</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6">
-        <v>5400</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="8" t="str">
-        <f>A$17</f>
-        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1005</v>
       </c>
       <c r="E18" s="19">
         <v>2</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B19" s="8" t="str">
-        <f t="shared" ref="B19:B21" si="2">A$17</f>
-        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
+        <f>A$14</f>
+        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="16">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="E19" s="19">
         <v>2</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B20" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
+        <f>A$14</f>
+        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="16">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="E20" s="19">
         <v>2</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B21" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>016ad7dd-23f7-4325-832f-81917582ecf0</v>
+        <f>A$14</f>
+        <v>afdbad4a-33fe-4056-8c84-5e1f5a136d10</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="16">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="E21" s="19">
         <v>2</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>33</v>
@@ -1603,13 +1603,13 @@
         <v>2</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>21</v>
@@ -1634,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>29</v>
@@ -1652,7 +1652,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="8" t="str">
-        <f t="shared" ref="B24" si="3">A$22</f>
+        <f>A$22</f>
         <v>7ffae86e-2c49-4bba-a160-04b6d0b647f4</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1665,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>31</v>
@@ -1684,5 +1684,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>